--- a/Selenium Interview Questions v27June2016.xlsx
+++ b/Selenium Interview Questions v27June2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8385" firstSheet="8" activeTab="17"/>
+    <workbookView windowWidth="19890" windowHeight="8385" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="lIST">Sheet1!$A$1:$A$32</definedName>
     <definedName name="New">[1]Sheet1!$A$1:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -6119,12 +6119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6157,24 +6157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6184,6 +6168,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6232,14 +6224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6249,6 +6234,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6269,7 +6261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6277,6 +6269,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6291,29 +6322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -6322,31 +6330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6359,16 +6344,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6394,7 +6386,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6439,12 +6431,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6457,7 +6443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6475,13 +6479,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6493,85 +6533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6589,13 +6551,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6619,25 +6611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6823,16 +6809,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6852,13 +6838,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6872,21 +6862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6895,151 +6870,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7160,20 +7146,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7182,11 +7164,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7202,12 +7196,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7233,10 +7227,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7249,14 +7243,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8058,29 +8052,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.14285714285714" style="97" customWidth="1"/>
-    <col min="2" max="2" width="15.4285714285714" style="97" customWidth="1"/>
-    <col min="3" max="3" width="11.4285714285714" style="97" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="97"/>
-    <col min="5" max="5" width="19" style="97" customWidth="1"/>
-    <col min="6" max="6" width="11.4285714285714" style="97" customWidth="1"/>
-    <col min="7" max="9" width="9.14285714285714" style="97"/>
-    <col min="10" max="10" width="9.28571428571429" style="97" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="97"/>
+    <col min="1" max="1" width="4.14285714285714" style="99" customWidth="1"/>
+    <col min="2" max="2" width="15.4285714285714" style="99" customWidth="1"/>
+    <col min="3" max="3" width="11.4285714285714" style="99" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="99"/>
+    <col min="5" max="5" width="19" style="99" customWidth="1"/>
+    <col min="6" max="6" width="11.4285714285714" style="99" customWidth="1"/>
+    <col min="7" max="9" width="9.14285714285714" style="99"/>
+    <col min="10" max="10" width="9.28571428571429" style="99" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="99"/>
   </cols>
   <sheetData>
     <row r="2" ht="15" spans="2:6">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="100" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="22"/>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="100" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8088,14 +8082,14 @@
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="101">
         <v>45</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="102">
         <v>33</v>
       </c>
     </row>
@@ -8103,14 +8097,14 @@
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="101">
         <v>20</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="101">
         <v>30</v>
       </c>
     </row>
@@ -8118,244 +8112,244 @@
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="101">
         <v>203</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="101">
         <v>9</v>
       </c>
-      <c r="H5" s="101" t="s">
+      <c r="H5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" ht="15" spans="2:11">
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="102">
         <v>7</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="99">
+      <c r="F6" s="101">
         <v>23</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
     </row>
     <row r="7" ht="15" spans="2:11">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="101">
         <v>36</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="102">
         <v>81</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="114"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
     </row>
     <row r="8" ht="15" spans="2:11">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="102">
         <v>14</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="101">
         <v>14</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="114"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="116"/>
     </row>
     <row r="9" ht="15" spans="2:11">
       <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="101">
         <v>17</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="101">
         <v>89</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
     </row>
     <row r="10" ht="15" spans="2:11">
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="101">
         <v>9</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="101">
         <v>73</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="116"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:11">
       <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="101">
         <v>144</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="102">
         <v>7</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
     </row>
     <row r="12" ht="15" spans="2:11">
       <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="101">
         <v>15</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="107">
         <v>12</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
     </row>
     <row r="13" ht="15" spans="2:11">
       <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="101">
         <v>38</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="99">
+      <c r="F13" s="101">
         <v>5</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
     </row>
     <row r="14" ht="15" spans="2:11">
       <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="101">
         <v>44</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="99">
+      <c r="F14" s="101">
         <v>7</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
     </row>
     <row r="15" ht="15" spans="2:11">
       <c r="B15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="102">
         <v>19</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="99">
+      <c r="F15" s="101">
         <v>14</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
     </row>
     <row r="16" ht="15" spans="2:11">
       <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="102">
         <v>71</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="101">
         <v>53</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="118"/>
     </row>
     <row r="17" ht="15" spans="2:6">
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="102">
         <v>10</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="101">
         <v>53</v>
       </c>
     </row>
@@ -8363,14 +8357,14 @@
       <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C18" s="109">
         <v>222</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="99">
+      <c r="F18" s="101">
         <v>60</v>
       </c>
     </row>
@@ -8378,14 +8372,14 @@
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="101">
         <v>63</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="101">
         <v>49</v>
       </c>
     </row>
@@ -8393,14 +8387,14 @@
       <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="101">
         <v>12</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="99">
+      <c r="F20" s="101">
         <v>41</v>
       </c>
     </row>
@@ -8408,22 +8402,22 @@
       <c r="B21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="101">
         <v>13</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="101">
         <v>10</v>
       </c>
     </row>
     <row r="22" customHeight="1"/>
     <row r="23" customHeight="1" spans="5:6">
-      <c r="E23" s="108" t="s">
+      <c r="E23" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="109">
+      <c r="F23" s="111">
         <f>SUM(C3:C21,F3:F21)</f>
         <v>1665</v>
       </c>
@@ -8432,10 +8426,10 @@
     <row r="25" customHeight="1"/>
     <row r="26" customHeight="1"/>
     <row r="37" spans="1:3">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="110"/>
+      <c r="C37" s="112"/>
     </row>
   </sheetData>
   <sortState ref="C3:D24">
@@ -8555,7 +8549,7 @@
       <c r="B5" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="69" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8566,7 +8560,7 @@
       <c r="B6" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="69" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8577,7 +8571,7 @@
       <c r="B7" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="69" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8588,7 +8582,7 @@
       <c r="B8" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="69" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8599,7 +8593,7 @@
       <c r="B9" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8610,7 +8604,7 @@
       <c r="B10" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="69" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8625,8 +8619,8 @@
   <sheetPr/>
   <dimension ref="A1:AC199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8646,7 +8640,7 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="77">
+      <c r="A2" s="73">
         <v>1</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -8683,7 +8677,7 @@
       <c r="AC2" s="9"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="77">
+      <c r="A3" s="73">
         <v>2</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -8720,7 +8714,7 @@
       <c r="AC3" s="9"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="77">
+      <c r="A4" s="73">
         <v>3</v>
       </c>
       <c r="B4" s="62" t="s">
@@ -8757,7 +8751,7 @@
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="77">
+      <c r="A5" s="73">
         <v>4</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -8794,7 +8788,7 @@
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="77">
+      <c r="A6" s="73">
         <v>5</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -8831,7 +8825,7 @@
       <c r="AC6" s="9"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="77">
+      <c r="A7" s="73">
         <v>6</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -8868,7 +8862,7 @@
       <c r="AC7" s="9"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="77">
+      <c r="A8" s="73">
         <v>7</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -8905,7 +8899,7 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="77">
+      <c r="A9" s="73">
         <v>8</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -8942,7 +8936,7 @@
       <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="77">
+      <c r="A10" s="73">
         <v>9</v>
       </c>
       <c r="B10" s="62" t="s">
@@ -8979,7 +8973,7 @@
       <c r="AC10" s="9"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="77">
+      <c r="A11" s="73">
         <v>10</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -9016,7 +9010,7 @@
       <c r="AC11" s="9"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="77">
+      <c r="A12" s="73">
         <v>11</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -9053,7 +9047,7 @@
       <c r="AC12" s="9"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="77">
+      <c r="A13" s="73">
         <v>12</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -9090,7 +9084,7 @@
       <c r="AC13" s="9"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="77">
+      <c r="A14" s="73">
         <v>13</v>
       </c>
       <c r="B14" s="62" t="s">
@@ -9127,7 +9121,7 @@
       <c r="AC14" s="9"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="77">
+      <c r="A15" s="73">
         <v>14</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -9164,7 +9158,7 @@
       <c r="AC15" s="9"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="77">
+      <c r="A16" s="73">
         <v>15</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -9201,7 +9195,7 @@
       <c r="AC16" s="9"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="77">
+      <c r="A17" s="73">
         <v>16</v>
       </c>
       <c r="B17" s="62" t="s">
@@ -9238,7 +9232,7 @@
       <c r="AC17" s="9"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="77">
+      <c r="A18" s="73">
         <v>17</v>
       </c>
       <c r="B18" s="62" t="s">
@@ -9275,7 +9269,7 @@
       <c r="AC18" s="9"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="77">
+      <c r="A19" s="73">
         <v>18</v>
       </c>
       <c r="B19" s="62" t="s">
@@ -9312,7 +9306,7 @@
       <c r="AC19" s="9"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="77">
+      <c r="A20" s="73">
         <v>19</v>
       </c>
       <c r="B20" s="62" t="s">
@@ -9349,7 +9343,7 @@
       <c r="AC20" s="9"/>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="77">
+      <c r="A21" s="73">
         <v>20</v>
       </c>
       <c r="B21" s="62" t="s">
@@ -9386,7 +9380,7 @@
       <c r="AC21" s="9"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="77">
+      <c r="A22" s="73">
         <v>21</v>
       </c>
       <c r="B22" s="62" t="s">
@@ -9423,7 +9417,7 @@
       <c r="AC22" s="9"/>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="77">
+      <c r="A23" s="73">
         <v>22</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -9460,7 +9454,7 @@
       <c r="AC23" s="9"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="77">
+      <c r="A24" s="73">
         <v>23</v>
       </c>
       <c r="B24" s="62" t="s">
@@ -9497,7 +9491,7 @@
       <c r="AC24" s="9"/>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="77">
+      <c r="A25" s="73">
         <v>24</v>
       </c>
       <c r="B25" s="62" t="s">
@@ -9534,7 +9528,7 @@
       <c r="AC25" s="9"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="77">
+      <c r="A26" s="73">
         <v>25</v>
       </c>
       <c r="B26" s="62" t="s">
@@ -9571,7 +9565,7 @@
       <c r="AC26" s="9"/>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="77">
+      <c r="A27" s="73">
         <v>26</v>
       </c>
       <c r="B27" s="62" t="s">
@@ -9608,7 +9602,7 @@
       <c r="AC27" s="9"/>
     </row>
     <row r="28" ht="30" spans="1:29">
-      <c r="A28" s="77">
+      <c r="A28" s="73">
         <v>27</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -9645,7 +9639,7 @@
       <c r="AC28" s="9"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="77">
+      <c r="A29" s="73">
         <v>28</v>
       </c>
       <c r="B29" s="62" t="s">
@@ -9682,7 +9676,7 @@
       <c r="AC29" s="9"/>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="77">
+      <c r="A30" s="73">
         <v>29</v>
       </c>
       <c r="B30" s="62" t="s">
@@ -9719,7 +9713,7 @@
       <c r="AC30" s="9"/>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="77">
+      <c r="A31" s="73">
         <v>30</v>
       </c>
       <c r="B31" s="62" t="s">
@@ -9756,7 +9750,7 @@
       <c r="AC31" s="9"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="77">
+      <c r="A32" s="73">
         <v>31</v>
       </c>
       <c r="B32" s="62" t="s">
@@ -9767,7 +9761,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="77">
+      <c r="A33" s="73">
         <v>32</v>
       </c>
       <c r="B33" s="62" t="s">
@@ -9778,7 +9772,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="77">
+      <c r="A34" s="73">
         <v>33</v>
       </c>
       <c r="B34" s="62" t="s">
@@ -9789,7 +9783,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="77">
+      <c r="A35" s="73">
         <v>34</v>
       </c>
       <c r="B35" s="62" t="s">
@@ -9800,7 +9794,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="77">
+      <c r="A36" s="73">
         <v>35</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -9811,7 +9805,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="77">
+      <c r="A37" s="73">
         <v>36</v>
       </c>
       <c r="B37" s="62" t="s">
@@ -9822,7 +9816,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="77">
+      <c r="A38" s="73">
         <v>37</v>
       </c>
       <c r="B38" s="62" t="s">
@@ -9833,7 +9827,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="77">
+      <c r="A39" s="73">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -9844,7 +9838,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="77">
+      <c r="A40" s="73">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -9855,7 +9849,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="77">
+      <c r="A41" s="73">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -9866,7 +9860,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="77">
+      <c r="A42" s="73">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -9877,7 +9871,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="77">
+      <c r="A43" s="73">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -9888,7 +9882,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="77">
+      <c r="A44" s="73">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -9899,7 +9893,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="77">
+      <c r="A45" s="73">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -9910,7 +9904,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="77">
+      <c r="A46" s="73">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -9921,7 +9915,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="77">
+      <c r="A47" s="73">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -9932,7 +9926,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="77">
+      <c r="A48" s="73">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -9943,7 +9937,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="77">
+      <c r="A49" s="73">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -9954,7 +9948,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="77">
+      <c r="A50" s="73">
         <v>49</v>
       </c>
       <c r="B50" s="39" t="s">
@@ -9965,7 +9959,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="77">
+      <c r="A51" s="73">
         <v>50</v>
       </c>
       <c r="B51" s="39" t="s">
@@ -9976,7 +9970,7 @@
       </c>
     </row>
     <row r="52" ht="30" spans="1:3">
-      <c r="A52" s="77">
+      <c r="A52" s="73">
         <v>51</v>
       </c>
       <c r="B52" s="39" t="s">
@@ -9987,7 +9981,7 @@
       </c>
     </row>
     <row r="53" ht="30" spans="1:3">
-      <c r="A53" s="77">
+      <c r="A53" s="73">
         <v>52</v>
       </c>
       <c r="B53" s="39" t="s">
@@ -9998,7 +9992,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="77">
+      <c r="A54" s="73">
         <v>53</v>
       </c>
       <c r="B54" s="39" t="s">
@@ -10009,7 +10003,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="77">
+      <c r="A55" s="73">
         <v>54</v>
       </c>
       <c r="B55" s="39" t="s">
@@ -10020,7 +10014,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="77">
+      <c r="A56" s="73">
         <v>55</v>
       </c>
       <c r="B56" s="39" t="s">
@@ -10031,7 +10025,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="77">
+      <c r="A57" s="73">
         <v>56</v>
       </c>
       <c r="B57" s="39" t="s">
@@ -10042,7 +10036,7 @@
       </c>
     </row>
     <row r="58" ht="30" spans="1:3">
-      <c r="A58" s="77">
+      <c r="A58" s="73">
         <v>57</v>
       </c>
       <c r="B58" s="39" t="s">
@@ -10053,7 +10047,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="77">
+      <c r="A59" s="73">
         <v>58</v>
       </c>
       <c r="B59" s="39" t="s">
@@ -10064,7 +10058,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="77">
+      <c r="A60" s="73">
         <v>59</v>
       </c>
       <c r="B60" s="39" t="s">
@@ -10075,7 +10069,7 @@
       </c>
     </row>
     <row r="61" ht="30" spans="1:3">
-      <c r="A61" s="77">
+      <c r="A61" s="73">
         <v>60</v>
       </c>
       <c r="B61" s="39" t="s">
@@ -10086,7 +10080,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="77">
+      <c r="A62" s="73">
         <v>61</v>
       </c>
       <c r="B62" s="39" t="s">
@@ -10097,7 +10091,7 @@
       </c>
     </row>
     <row r="63" ht="30" spans="1:3">
-      <c r="A63" s="77">
+      <c r="A63" s="73">
         <v>62</v>
       </c>
       <c r="B63" s="39" t="s">
@@ -10108,10 +10102,10 @@
       </c>
     </row>
     <row r="64" ht="30" spans="1:3">
-      <c r="A64" s="77">
+      <c r="A64" s="73">
         <v>63</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="74" t="s">
         <v>529</v>
       </c>
       <c r="C64" t="s">
@@ -10119,7 +10113,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="77">
+      <c r="A65" s="73">
         <v>64</v>
       </c>
       <c r="B65" s="39" t="s">
@@ -10130,7 +10124,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="77">
+      <c r="A66" s="73">
         <v>65</v>
       </c>
       <c r="B66" s="39" t="s">
@@ -10141,7 +10135,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="77">
+      <c r="A67" s="73">
         <v>66</v>
       </c>
       <c r="B67" s="39" t="s">
@@ -10152,7 +10146,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="77">
+      <c r="A68" s="73">
         <v>67</v>
       </c>
       <c r="B68" s="39" t="s">
@@ -10163,7 +10157,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="77">
+      <c r="A69" s="73">
         <v>68</v>
       </c>
       <c r="B69" s="39" t="s">
@@ -10174,7 +10168,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="77">
+      <c r="A70" s="73">
         <v>69</v>
       </c>
       <c r="B70" s="39" t="s">
@@ -10185,7 +10179,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="77">
+      <c r="A71" s="73">
         <v>70</v>
       </c>
       <c r="B71" s="39" t="s">
@@ -10196,7 +10190,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="77">
+      <c r="A72" s="73">
         <v>71</v>
       </c>
       <c r="B72" s="39" t="s">
@@ -10207,7 +10201,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="77">
+      <c r="A73" s="73">
         <v>72</v>
       </c>
       <c r="B73" s="39" t="s">
@@ -10218,7 +10212,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="77">
+      <c r="A74" s="73">
         <v>73</v>
       </c>
       <c r="B74" s="39" t="s">
@@ -10229,7 +10223,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="77">
+      <c r="A75" s="73">
         <v>74</v>
       </c>
       <c r="B75" s="39" t="s">
@@ -10240,7 +10234,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="77">
+      <c r="A76" s="73">
         <v>75</v>
       </c>
       <c r="B76" s="39" t="s">
@@ -10251,7 +10245,7 @@
       </c>
     </row>
     <row r="77" ht="30" spans="1:3">
-      <c r="A77" s="77">
+      <c r="A77" s="73">
         <v>76</v>
       </c>
       <c r="B77" s="39" t="s">
@@ -10262,18 +10256,18 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="77">
+      <c r="A78" s="73">
         <v>77</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="75" t="s">
         <v>544</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="76" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="77">
+      <c r="A79" s="73">
         <v>78</v>
       </c>
       <c r="B79" s="39" t="s">
@@ -10284,7 +10278,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="77">
+      <c r="A80" s="73">
         <v>79</v>
       </c>
       <c r="B80" s="39" t="s">
@@ -10295,7 +10289,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="77">
+      <c r="A81" s="73">
         <v>80</v>
       </c>
       <c r="B81" s="39" t="s">
@@ -10306,7 +10300,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="77">
+      <c r="A82" s="73">
         <v>81</v>
       </c>
       <c r="B82" s="39" t="s">
@@ -10317,7 +10311,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="77">
+      <c r="A83" s="73">
         <v>82</v>
       </c>
       <c r="B83" s="39" t="s">
@@ -10328,43 +10322,45 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="77">
+      <c r="A84" s="73">
         <v>83</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="77" t="s">
         <v>550</v>
       </c>
       <c r="C84" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="77">
+    <row r="85" spans="1:4">
+      <c r="A85" s="58">
         <v>84</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="75" t="s">
         <v>551</v>
       </c>
-      <c r="C85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="77">
+      <c r="C85" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="79"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="58">
         <v>85</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="C86" t="s">
-        <v>49</v>
-      </c>
+      <c r="C86" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="79"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="77">
+      <c r="A87" s="73">
         <v>86</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="80" t="s">
         <v>553</v>
       </c>
       <c r="C87" t="s">
@@ -10411,10 +10407,10 @@
       <c r="A94" s="37">
         <v>88</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="75" t="s">
         <v>558</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="76" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10474,7 +10470,7 @@
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="79" t="s">
+      <c r="B100" s="81" t="s">
         <v>564</v>
       </c>
     </row>
@@ -10621,7 +10617,7 @@
       <c r="A118" s="37">
         <v>103</v>
       </c>
-      <c r="B118" s="80" t="s">
+      <c r="B118" s="82" t="s">
         <v>581</v>
       </c>
       <c r="C118" t="s">
@@ -10720,7 +10716,7 @@
       <c r="A127" s="37">
         <v>112</v>
       </c>
-      <c r="B127" s="80" t="s">
+      <c r="B127" s="82" t="s">
         <v>590</v>
       </c>
       <c r="C127" t="s">
@@ -10968,8 +10964,8 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="81"/>
-      <c r="B153" s="82"/>
+      <c r="A153" s="83"/>
+      <c r="B153" s="84"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="37">
@@ -11423,7 +11419,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="40"/>
-      <c r="B199" s="83"/>
+      <c r="B199" s="85"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -11462,19 +11458,19 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6"/>
-      <c r="B3" s="72"/>
+      <c r="B3" s="68"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>651</v>
       </c>
       <c r="C4" t="s">
@@ -11485,7 +11481,7 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="68" t="s">
         <v>652</v>
       </c>
       <c r="C5" t="s">
@@ -11496,20 +11492,20 @@
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="68" t="s">
         <v>653</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6"/>
-      <c r="B7" s="72"/>
+      <c r="B7" s="68"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="67" t="s">
         <v>654</v>
       </c>
     </row>
@@ -11683,265 +11679,265 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="74"/>
-      <c r="B26" s="75"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="74"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="74"/>
-      <c r="B34" s="75"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="74"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="74"/>
-      <c r="B36" s="75"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="75"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="74"/>
-      <c r="B38" s="75"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="74"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="71"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="71"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="71"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="74"/>
-      <c r="B42" s="75"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="71"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="71"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="74"/>
-      <c r="B44" s="75"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="74"/>
-      <c r="B45" s="75"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="71"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="74"/>
-      <c r="B46" s="75"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="71"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="74"/>
-      <c r="B47" s="75"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="71"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="74"/>
-      <c r="B48" s="75"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="71"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="74"/>
-      <c r="B49" s="75"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="71"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="74"/>
-      <c r="B50" s="75"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="71"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="74"/>
-      <c r="B51" s="75"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="71"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="74"/>
-      <c r="B52" s="75"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="71"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="74"/>
-      <c r="B53" s="75"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="71"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="74"/>
-      <c r="B54" s="75"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="71"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="74"/>
-      <c r="B55" s="75"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="71"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="74"/>
-      <c r="B56" s="75"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="71"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="74"/>
-      <c r="B57" s="75"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="71"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="74"/>
-      <c r="B58" s="75"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="71"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="74"/>
-      <c r="B59" s="75"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="71"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="74"/>
-      <c r="B60" s="75"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="71"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="74"/>
-      <c r="B61" s="75"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="71"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="71"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="74"/>
-      <c r="B63" s="75"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="71"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
     </row>
     <row r="65" ht="15.75" spans="2:2">
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="72" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="2:2">
-      <c r="B66" s="76"/>
+      <c r="B66" s="72"/>
     </row>
     <row r="67" ht="15.75" spans="2:2">
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="72" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="2:2">
-      <c r="B68" s="76"/>
+      <c r="B68" s="72"/>
     </row>
     <row r="69" ht="15.75" spans="2:2">
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="72" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="70" ht="15.75" spans="2:2">
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="72" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="71" ht="15.75" spans="2:2">
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="72" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="72" ht="15.75" spans="2:2">
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="72" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="73" ht="15.75" spans="2:2">
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="72" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="74" ht="15.75" spans="2:2">
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="72" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="75" ht="15.75" spans="2:2">
-      <c r="B75" s="76"/>
+      <c r="B75" s="72"/>
     </row>
     <row r="76" ht="15.75" spans="2:2">
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="72" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="77" ht="15.75" spans="2:2">
-      <c r="B77" s="76"/>
+      <c r="B77" s="72"/>
     </row>
     <row r="78" ht="15.75" spans="2:2">
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="72" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="79" ht="15.75" spans="2:2">
-      <c r="B79" s="76"/>
+      <c r="B79" s="72"/>
     </row>
     <row r="80" ht="15.75" spans="2:2">
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="72" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="81" ht="15.75" spans="2:2">
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="72" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="82" ht="15.75" spans="2:2">
-      <c r="B82" s="76" t="s">
+      <c r="B82" s="72" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="2:2">
-      <c r="B83" s="76"/>
+      <c r="B83" s="72"/>
     </row>
     <row r="84" ht="15.75" spans="2:2">
-      <c r="B84" s="76"/>
+      <c r="B84" s="72"/>
     </row>
     <row r="85" ht="15.75" spans="2:2">
-      <c r="B85" s="76" t="s">
+      <c r="B85" s="72" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="86" ht="15.75" spans="2:2">
-      <c r="B86" s="76"/>
+      <c r="B86" s="72"/>
     </row>
     <row r="87" ht="15.75" spans="2:2">
-      <c r="B87" s="76" t="s">
+      <c r="B87" s="72" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="88" ht="15.75" spans="2:2">
-      <c r="B88" s="76"/>
+      <c r="B88" s="72"/>
     </row>
     <row r="89" ht="15.75" spans="2:2">
-      <c r="B89" s="76" t="s">
+      <c r="B89" s="72" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12432,7 +12428,7 @@
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="1" customHeight="1" spans="2:3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="66" t="s">
         <v>726</v>
       </c>
       <c r="C1" s="38" t="s">
@@ -12952,7 +12948,7 @@
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="1" customHeight="1" spans="2:3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="66" t="s">
         <v>726</v>
       </c>
       <c r="C1" s="38" t="s">
@@ -14072,7 +14068,7 @@
   <sheetData>
     <row r="1" s="38" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="33"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="66" t="s">
         <v>726</v>
       </c>
       <c r="C1" s="38" t="s">
@@ -14215,7 +14211,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
@@ -15501,10 +15497,10 @@
       <c r="A117" s="58">
         <v>117</v>
       </c>
-      <c r="B117" s="65" t="s">
+      <c r="B117" s="60" t="s">
         <v>982</v>
       </c>
-      <c r="C117" s="65" t="s">
+      <c r="C117" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16126,10 +16122,10 @@
       <c r="A174" s="58">
         <v>174</v>
       </c>
-      <c r="B174" s="66" t="s">
+      <c r="B174" s="65" t="s">
         <v>1040</v>
       </c>
-      <c r="C174" s="67" t="s">
+      <c r="C174" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16137,10 +16133,10 @@
       <c r="A175" s="58">
         <v>175</v>
       </c>
-      <c r="B175" s="66" t="s">
+      <c r="B175" s="65" t="s">
         <v>1041</v>
       </c>
-      <c r="C175" s="67" t="s">
+      <c r="C175" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16544,10 +16540,10 @@
       <c r="A215" s="33">
         <v>210</v>
       </c>
-      <c r="B215" s="68" t="s">
+      <c r="B215" s="65" t="s">
         <v>1078</v>
       </c>
-      <c r="C215" s="69" t="s">
+      <c r="C215" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16555,10 +16551,10 @@
       <c r="A216" s="33">
         <v>211</v>
       </c>
-      <c r="B216" s="66" t="s">
+      <c r="B216" s="65" t="s">
         <v>1079</v>
       </c>
-      <c r="C216" s="67" t="s">
+      <c r="C216" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16658,10 +16654,10 @@
       <c r="A226" s="33">
         <v>221</v>
       </c>
-      <c r="B226" s="68" t="s">
+      <c r="B226" s="65" t="s">
         <v>1089</v>
       </c>
-      <c r="C226" s="69" t="s">
+      <c r="C226" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16669,10 +16665,10 @@
       <c r="A227" s="33">
         <v>222</v>
       </c>
-      <c r="B227" s="68" t="s">
+      <c r="B227" s="65" t="s">
         <v>1090</v>
       </c>
-      <c r="C227" s="69" t="s">
+      <c r="C227" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17487,162 +17483,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="96" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="96" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="96" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="96" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="96" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="96" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="96" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="96" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="96" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="96" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="97" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="97" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="97" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="97" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="97" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="97" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="97" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="97" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="97" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="97" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="97" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="97" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="97" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="97" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="98" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="98" t="s">
         <v>74</v>
       </c>
     </row>
@@ -27466,7 +27462,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="90" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -27477,7 +27473,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -27488,7 +27484,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="90" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -27499,7 +27495,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="91" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -27510,10 +27506,10 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="92" t="s">
         <v>155</v>
       </c>
     </row>
@@ -27521,7 +27517,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="91" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -27532,7 +27528,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="91" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -27543,7 +27539,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="91" t="s">
         <v>158</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -27554,7 +27550,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="90" t="s">
         <v>159</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -27565,7 +27561,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="90" t="s">
         <v>161</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -27576,7 +27572,7 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="90" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -27587,7 +27583,7 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="90" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -27598,7 +27594,7 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="90" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -27609,7 +27605,7 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="90" t="s">
         <v>165</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -27620,7 +27616,7 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="90" t="s">
         <v>166</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -27628,7 +27624,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="90" t="s">
         <v>167</v>
       </c>
     </row>
@@ -27636,7 +27632,7 @@
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="90" t="s">
         <v>168</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -27647,7 +27643,7 @@
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="90" t="s">
         <v>169</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -27658,7 +27654,7 @@
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="90" t="s">
         <v>170</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -27666,43 +27662,43 @@
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="88"/>
+      <c r="B21" s="90"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="88"/>
+      <c r="B22" s="90"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="88"/>
+      <c r="B23" s="90"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="88"/>
+      <c r="B24" s="90"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="88"/>
+      <c r="B25" s="90"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="88"/>
+      <c r="B26" s="90"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="88"/>
+      <c r="B27" s="90"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="88"/>
+      <c r="B28" s="90"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="88"/>
+      <c r="B29" s="90"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="88"/>
+      <c r="B30" s="90"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="88"/>
+      <c r="B31" s="90"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11">
         <v>19</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="90" t="s">
         <v>171</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -27710,39 +27706,39 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="88"/>
+      <c r="B33" s="90"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="88"/>
+      <c r="B34" s="90"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="88"/>
+      <c r="B35" s="90"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="88"/>
+      <c r="B36" s="90"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="88"/>
+      <c r="B37" s="90"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="88"/>
+      <c r="B38" s="90"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="88"/>
+      <c r="B39" s="90"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="88"/>
+      <c r="B40" s="90"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="88"/>
+      <c r="B41" s="90"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="90" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="90" t="s">
         <v>173</v>
       </c>
     </row>
@@ -27750,7 +27746,7 @@
       <c r="A44" s="11">
         <v>20</v>
       </c>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="90" t="s">
         <v>174</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -27761,7 +27757,7 @@
       <c r="A45" s="11">
         <v>21</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="90" t="s">
         <v>175</v>
       </c>
     </row>
@@ -27769,7 +27765,7 @@
       <c r="A46" s="11">
         <v>22</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="90" t="s">
         <v>176</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -27780,7 +27776,7 @@
       <c r="A47" s="11">
         <v>23</v>
       </c>
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="90" t="s">
         <v>177</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -27791,12 +27787,12 @@
       <c r="A48" s="11">
         <v>24</v>
       </c>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="90" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="90" t="s">
         <v>179</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -27804,7 +27800,7 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="90" t="s">
         <v>180</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -27812,7 +27808,7 @@
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="90" t="s">
         <v>181</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -27820,7 +27816,7 @@
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="88" t="s">
+      <c r="B52" s="90" t="s">
         <v>182</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -27828,7 +27824,7 @@
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="88" t="s">
+      <c r="B53" s="90" t="s">
         <v>183</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -27836,7 +27832,7 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="93" t="s">
         <v>184</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -27844,12 +27840,12 @@
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="90" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="88" t="s">
+      <c r="B56" s="90" t="s">
         <v>186</v>
       </c>
     </row>
@@ -27857,7 +27853,7 @@
       <c r="A57" s="11">
         <v>25</v>
       </c>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="90" t="s">
         <v>187</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -27868,7 +27864,7 @@
       <c r="A58" s="11">
         <v>26</v>
       </c>
-      <c r="B58" s="88" t="s">
+      <c r="B58" s="90" t="s">
         <v>188</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -27879,7 +27875,7 @@
       <c r="A59" s="11">
         <v>27</v>
       </c>
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="90" t="s">
         <v>189</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -27890,7 +27886,7 @@
       <c r="A60" s="11">
         <v>28</v>
       </c>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="90" t="s">
         <v>190</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -27901,7 +27897,7 @@
       <c r="A61" s="11">
         <v>29</v>
       </c>
-      <c r="B61" s="88" t="s">
+      <c r="B61" s="90" t="s">
         <v>191</v>
       </c>
     </row>
@@ -27909,7 +27905,7 @@
       <c r="A62" s="11">
         <v>30</v>
       </c>
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="90" t="s">
         <v>192</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -27920,7 +27916,7 @@
       <c r="A63" s="11">
         <v>31</v>
       </c>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="90" t="s">
         <v>193</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -27931,7 +27927,7 @@
       <c r="A64" s="11">
         <v>40</v>
       </c>
-      <c r="B64" s="88" t="s">
+      <c r="B64" s="90" t="s">
         <v>194</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -27942,7 +27938,7 @@
       <c r="A65" s="11">
         <v>41</v>
       </c>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="90" t="s">
         <v>195</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -27953,7 +27949,7 @@
       <c r="A66" s="11">
         <v>42</v>
       </c>
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="90" t="s">
         <v>196</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -27964,7 +27960,7 @@
       <c r="A67" s="11">
         <v>43</v>
       </c>
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="90" t="s">
         <v>197</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -27975,7 +27971,7 @@
       <c r="A68" s="11">
         <v>44</v>
       </c>
-      <c r="B68" s="88" t="s">
+      <c r="B68" s="90" t="s">
         <v>198</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -27986,7 +27982,7 @@
       <c r="A69" s="11">
         <v>45</v>
       </c>
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="90" t="s">
         <v>199</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -27997,7 +27993,7 @@
       <c r="A70" s="11">
         <v>46</v>
       </c>
-      <c r="B70" s="88" t="s">
+      <c r="B70" s="90" t="s">
         <v>200</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -28008,7 +28004,7 @@
       <c r="A71" s="11">
         <v>47</v>
       </c>
-      <c r="B71" s="88" t="s">
+      <c r="B71" s="90" t="s">
         <v>201</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -28019,7 +28015,7 @@
       <c r="A72" s="11">
         <v>48</v>
       </c>
-      <c r="B72" s="88" t="s">
+      <c r="B72" s="90" t="s">
         <v>202</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -28030,7 +28026,7 @@
       <c r="A73" s="11">
         <v>49</v>
       </c>
-      <c r="B73" s="88" t="s">
+      <c r="B73" s="90" t="s">
         <v>203</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -28041,7 +28037,7 @@
       <c r="A74" s="11">
         <v>50</v>
       </c>
-      <c r="B74" s="88" t="s">
+      <c r="B74" s="90" t="s">
         <v>204</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -28052,7 +28048,7 @@
       <c r="A75" s="11">
         <v>51</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="90" t="s">
         <v>205</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -28063,7 +28059,7 @@
       <c r="A76" s="11">
         <v>52</v>
       </c>
-      <c r="B76" s="88" t="s">
+      <c r="B76" s="90" t="s">
         <v>206</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -28074,7 +28070,7 @@
       <c r="A77" s="11">
         <v>53</v>
       </c>
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="90" t="s">
         <v>207</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -28085,7 +28081,7 @@
       <c r="A78" s="11">
         <v>54</v>
       </c>
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="90" t="s">
         <v>208</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -28093,17 +28089,17 @@
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="88" t="s">
+      <c r="B79" s="90" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="88" t="s">
+      <c r="B80" s="90" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="88" t="s">
+      <c r="B81" s="90" t="s">
         <v>211</v>
       </c>
     </row>
@@ -28111,7 +28107,7 @@
       <c r="A82" s="11">
         <v>55</v>
       </c>
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="90" t="s">
         <v>212</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -28119,32 +28115,32 @@
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="88" t="s">
+      <c r="B83" s="90" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="90" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="88" t="s">
+      <c r="B85" s="90" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="88" t="s">
+      <c r="B86" s="90" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="88" t="s">
+      <c r="B87" s="90" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="88" t="s">
+      <c r="B88" s="90" t="s">
         <v>218</v>
       </c>
     </row>
@@ -28152,7 +28148,7 @@
       <c r="A89" s="11">
         <v>56</v>
       </c>
-      <c r="B89" s="88" t="s">
+      <c r="B89" s="90" t="s">
         <v>219</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -28160,7 +28156,7 @@
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="88" t="s">
+      <c r="B90" s="90" t="s">
         <v>220</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -28171,7 +28167,7 @@
       <c r="A91" s="11">
         <v>57</v>
       </c>
-      <c r="B91" s="88" t="s">
+      <c r="B91" s="90" t="s">
         <v>221</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -28182,7 +28178,7 @@
       <c r="A92" s="11">
         <v>58</v>
       </c>
-      <c r="B92" s="88" t="s">
+      <c r="B92" s="90" t="s">
         <v>222</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -28193,7 +28189,7 @@
       <c r="A93" s="11">
         <v>59</v>
       </c>
-      <c r="B93" s="88" t="s">
+      <c r="B93" s="90" t="s">
         <v>223</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -28204,7 +28200,7 @@
       <c r="A94" s="11">
         <v>60</v>
       </c>
-      <c r="B94" s="88" t="s">
+      <c r="B94" s="90" t="s">
         <v>225</v>
       </c>
       <c r="C94" s="8" t="s">
@@ -28215,7 +28211,7 @@
       <c r="A95" s="11">
         <v>61</v>
       </c>
-      <c r="B95" s="91" t="s">
+      <c r="B95" s="93" t="s">
         <v>226</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -28226,7 +28222,7 @@
       <c r="A96" s="11">
         <v>62</v>
       </c>
-      <c r="B96" s="91" t="s">
+      <c r="B96" s="93" t="s">
         <v>227</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -28535,7 +28531,7 @@
       <c r="A120" s="11">
         <v>87</v>
       </c>
-      <c r="B120" s="92" t="s">
+      <c r="B120" s="94" t="s">
         <v>251</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -28546,7 +28542,7 @@
       <c r="A121" s="11">
         <v>88</v>
       </c>
-      <c r="B121" s="92" t="s">
+      <c r="B121" s="94" t="s">
         <v>252</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -29638,7 +29634,7 @@
       <c r="A241" s="11">
         <v>186</v>
       </c>
-      <c r="B241" s="80" t="s">
+      <c r="B241" s="82" t="s">
         <v>354</v>
       </c>
       <c r="C241" s="8" t="s">
@@ -29983,7 +29979,7 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="89" t="s">
         <v>380</v>
       </c>
     </row>
@@ -29991,7 +29987,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="89" t="s">
         <v>381</v>
       </c>
       <c r="C3" t="s">
@@ -30002,7 +29998,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="89" t="s">
         <v>382</v>
       </c>
       <c r="C4" t="s">
@@ -30013,7 +30009,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>383</v>
       </c>
       <c r="C5" t="s">
@@ -30024,7 +30020,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>384</v>
       </c>
       <c r="C6" t="s">
@@ -30035,7 +30031,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="89" t="s">
         <v>385</v>
       </c>
       <c r="C7" t="s">
@@ -30046,7 +30042,7 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="89" t="s">
         <v>386</v>
       </c>
       <c r="C8" t="s">
@@ -30057,7 +30053,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="89" t="s">
         <v>387</v>
       </c>
       <c r="C9" t="s">
@@ -30068,7 +30064,7 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="89" t="s">
         <v>388</v>
       </c>
       <c r="C10" t="s">
@@ -30079,7 +30075,7 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="89" t="s">
         <v>389</v>
       </c>
       <c r="C11" t="s">
@@ -30090,7 +30086,7 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="89" t="s">
         <v>390</v>
       </c>
       <c r="C12" t="s">
@@ -30101,7 +30097,7 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="89" t="s">
         <v>391</v>
       </c>
       <c r="C13" t="s">
@@ -30112,7 +30108,7 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="89" t="s">
         <v>392</v>
       </c>
       <c r="C14" t="s">
@@ -30123,7 +30119,7 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="89" t="s">
         <v>393</v>
       </c>
       <c r="C15" t="s">
@@ -30134,7 +30130,7 @@
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="89" t="s">
         <v>394</v>
       </c>
       <c r="C16" t="s">
@@ -30145,7 +30141,7 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="89" t="s">
         <v>396</v>
       </c>
     </row>
@@ -30153,7 +30149,7 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="89" t="s">
         <v>397</v>
       </c>
       <c r="C18" t="s">
@@ -30164,7 +30160,7 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="89" t="s">
         <v>398</v>
       </c>
       <c r="C19" t="s">
@@ -30175,7 +30171,7 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="89" t="s">
         <v>400</v>
       </c>
       <c r="C20" t="s">
@@ -30186,7 +30182,7 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="89" t="s">
         <v>402</v>
       </c>
       <c r="C21" t="s">
@@ -30197,7 +30193,7 @@
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="89" t="s">
         <v>403</v>
       </c>
       <c r="C22" t="s">
@@ -30208,7 +30204,7 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="89" t="s">
         <v>404</v>
       </c>
       <c r="C23" t="s">
@@ -30219,7 +30215,7 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="89" t="s">
         <v>405</v>
       </c>
       <c r="C24" t="s">
@@ -30230,7 +30226,7 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="89" t="s">
         <v>406</v>
       </c>
       <c r="C25" t="s">
@@ -30241,7 +30237,7 @@
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="89" t="s">
         <v>407</v>
       </c>
       <c r="C26" t="s">
@@ -30252,7 +30248,7 @@
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="89" t="s">
         <v>408</v>
       </c>
       <c r="C27" t="s">
@@ -30263,7 +30259,7 @@
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="89" t="s">
         <v>409</v>
       </c>
       <c r="C28" t="s">
@@ -30271,7 +30267,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="74">
+      <c r="A29" s="70">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -30282,7 +30278,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="74">
+      <c r="A30" s="70">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -30293,7 +30289,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="74">
+      <c r="A31" s="70">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -30304,7 +30300,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="74">
+      <c r="A32" s="70">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -30315,7 +30311,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="74">
+      <c r="A33" s="70">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -30326,7 +30322,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="74">
+      <c r="A34" s="70">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -30337,7 +30333,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="74">
+      <c r="A35" s="70">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -30348,7 +30344,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="74">
+      <c r="A36" s="70">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -30359,7 +30355,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="74">
+      <c r="A37" s="70">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -30387,13 +30383,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="5.28571428571429" style="74" customWidth="1"/>
+    <col min="1" max="1" width="5.28571428571429" style="70" customWidth="1"/>
     <col min="2" max="2" width="93.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="1" spans="1:3">
-      <c r="A1" s="86"/>
+      <c r="A1" s="88"/>
       <c r="B1" s="38" t="s">
         <v>75</v>
       </c>
@@ -30412,7 +30408,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="74">
+      <c r="A4" s="70">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -30423,7 +30419,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="74">
+      <c r="A5" s="70">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -30434,7 +30430,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="74">
+      <c r="A6" s="70">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -30445,7 +30441,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="74">
+      <c r="A7" s="70">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -30456,7 +30452,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="74">
+      <c r="A8" s="70">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -30467,7 +30463,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="74">
+      <c r="A9" s="70">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -30478,7 +30474,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="74">
+      <c r="A10" s="70">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -30489,7 +30485,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="74">
+      <c r="A11" s="70">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -30505,7 +30501,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="74">
+      <c r="A13" s="70">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -30516,7 +30512,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="74">
+      <c r="A14" s="70">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -30527,7 +30523,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="74">
+      <c r="A15" s="70">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -30538,7 +30534,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="74">
+      <c r="A16" s="70">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -30549,7 +30545,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="74">
+      <c r="A17" s="70">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -30560,7 +30556,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="74">
+      <c r="A18" s="70">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -30609,7 +30605,7 @@
       <c r="A2" s="11">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="86" t="s">
         <v>439</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -30620,7 +30616,7 @@
       <c r="A3" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="86" t="s">
         <v>441</v>
       </c>
       <c r="C3" t="s">
@@ -30631,7 +30627,7 @@
       <c r="A4" s="11">
         <v>4</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="86" t="s">
         <v>442</v>
       </c>
       <c r="C4" t="s">
@@ -30642,7 +30638,7 @@
       <c r="A5" s="11">
         <v>5</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="86" t="s">
         <v>443</v>
       </c>
       <c r="C5" t="s">
@@ -30653,10 +30649,10 @@
       <c r="A6" s="11">
         <v>6</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="86" t="s">
         <v>444</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="69" t="s">
         <v>445</v>
       </c>
     </row>
@@ -30664,10 +30660,10 @@
       <c r="A7" s="11">
         <v>7</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="86" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="69" t="s">
         <v>64</v>
       </c>
     </row>
@@ -30675,10 +30671,10 @@
       <c r="A8" s="11">
         <v>8</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="86" t="s">
         <v>447</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="69" t="s">
         <v>448</v>
       </c>
     </row>
@@ -30686,10 +30682,10 @@
       <c r="A9" s="11">
         <v>9</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -30697,7 +30693,7 @@
       <c r="A10" s="11">
         <v>10</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="86" t="s">
         <v>450</v>
       </c>
       <c r="C10" t="s">
@@ -30708,7 +30704,7 @@
       <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="86" t="s">
         <v>451</v>
       </c>
       <c r="C11" t="s">
@@ -30719,7 +30715,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="86" t="s">
         <v>452</v>
       </c>
     </row>
@@ -30727,7 +30723,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="86" t="s">
         <v>453</v>
       </c>
       <c r="C13" t="s">
@@ -30738,7 +30734,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="86" t="s">
         <v>454</v>
       </c>
       <c r="C14" t="s">
@@ -30749,7 +30745,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="86" t="s">
         <v>455</v>
       </c>
       <c r="C15" t="s">
@@ -30760,7 +30756,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="86" t="s">
         <v>456</v>
       </c>
       <c r="C16" t="s">
@@ -30771,7 +30767,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="87" t="s">
         <v>457</v>
       </c>
       <c r="C17" t="s">
